--- a/excel-R/dibujos_varianza.xlsx
+++ b/excel-R/dibujos_varianza.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27809"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34bf2af71bbc2e43/Documentos/010 Formación/001-Libro estadistica/hojas_codigo_R/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/34bf2af71bbc2e43/Documentos/GitHub/industrial-stats/excel-R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1907" documentId="8_{CCF87F97-1121-4769-B3F8-9616DC188CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FCA58F9-7943-4187-8634-9FACEC87945E}"/>
+  <xr:revisionPtr revIDLastSave="2116" documentId="8_{CCF87F97-1121-4769-B3F8-9616DC188CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E243CEE7-B15C-40E0-9347-3A38B0FF630B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{9855935C-5D8F-409E-B6B8-3F51092B48DC}"/>
+    <workbookView xWindow="35970" yWindow="780" windowWidth="20160" windowHeight="18615" activeTab="3" xr2:uid="{9855935C-5D8F-409E-B6B8-3F51092B48DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Grupo" sheetId="4" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="70">
   <si>
     <t>altura media</t>
   </si>
@@ -226,9 +226,6 @@
     <t>165-175</t>
   </si>
   <si>
-    <t>Cuenta de datos</t>
-  </si>
-  <si>
     <t>Valor medio</t>
   </si>
   <si>
@@ -285,12 +282,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>234459</t>
-  </si>
-  <si>
-    <t>Stem and leaf</t>
-  </si>
-  <si>
     <t>analista1</t>
   </si>
   <si>
@@ -302,11 +293,29 @@
   <si>
     <t>altura_cm</t>
   </si>
+  <si>
+    <t>Stem plot</t>
+  </si>
+  <si>
+    <t>23449</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>frec rel</t>
+  </si>
+  <si>
+    <t>frec abs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -473,7 +482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -520,11 +529,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3860,136 +3881,136 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>174</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>156</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>171</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>164</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="33">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="37">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>170</c:v>
-                </c:pt>
                 <c:pt idx="40">
-                  <c:v>163</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>169</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>161</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="44">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4175,136 +4196,136 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="47"/>
                 <c:pt idx="0">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>149.27272727272728</c:v>
+                  <c:v>154.81818181818181</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>156.54545454545453</c:v>
+                  <c:v>158.27272727272728</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>170.27272727272728</c:v>
+                  <c:v>170.36363636363637</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>164.18181818181819</c:v>
+                  <c:v>164.54545454545453</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7895,8 +7916,8 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[dibujos_varianza.xlsx]Histograma usando TD!TablaDinámica1</c:name>
-    <c:fmtId val="1"/>
+    <c:name>[dibujos_varianza.xlsx]Histograma usando TD!TablaDinámica2</c:name>
+    <c:fmtId val="5"/>
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -7969,7 +7990,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Histograma usando TD'!$B$3</c:f>
+              <c:f>'Histograma usando TD'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7990,7 +8011,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Histograma usando TD'!$A$4:$A$8</c:f>
+              <c:f>'Histograma usando TD'!$F$4:$F$8</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -8010,7 +8031,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Histograma usando TD'!$B$4:$B$8</c:f>
+              <c:f>'Histograma usando TD'!$G$4:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -8031,7 +8052,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-89C0-41BF-B0CB-C674EA4B40D0}"/>
+              <c16:uniqueId val="{00000000-9FDA-41DC-A4EF-367F082439B5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8044,12 +8065,12 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="50"/>
-        <c:overlap val="10"/>
-        <c:axId val="44621232"/>
-        <c:axId val="44623312"/>
+        <c:overlap val="18"/>
+        <c:axId val="1990197263"/>
+        <c:axId val="1990216463"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44621232"/>
+        <c:axId val="1990197263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8092,7 +8113,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44623312"/>
+        <c:crossAx val="1990216463"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8100,7 +8121,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44623312"/>
+        <c:axId val="1990216463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8151,7 +8172,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44621232"/>
+        <c:crossAx val="1990197263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10928,7 +10949,7 @@
           <cx:dataId val="0"/>
           <cx:layoutPr>
             <cx:binning intervalClosed="r">
-              <cx:binSize val="5"/>
+              <cx:binSize val="18"/>
             </cx:binning>
           </cx:layoutPr>
         </cx:series>
@@ -21850,23 +21871,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>505116</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>95617</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>324076</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Imagen 13">
+        <xdr:cNvPr id="22" name="Imagen 21" descr="Tabla&#10;&#10;Descripción generada automáticamente">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C404995E-50FB-34F7-3134-F6D7B87EEAD9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58192C11-5F30-9E60-FDC1-877753AA4580}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21882,8 +21903,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2371725" y="3076575"/>
-          <a:ext cx="2086266" cy="2629267"/>
+          <a:off x="285750" y="6103620"/>
+          <a:ext cx="1619476" cy="1421328"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>65027</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>40239</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24" descr="Tabla, Excel&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA3B085F-81AA-D6C6-8D02-A112680B1E9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="6143625"/>
+          <a:ext cx="1836677" cy="1678539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>227041</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>19425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Imagen 25" descr="Interfaz de usuario gráfica, Aplicación, Tabla, Excel&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53965045-8C49-92D1-1C21-72FA22885D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="3124200"/>
+          <a:ext cx="2474941" cy="2686425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23859,25 +23968,113 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>739596</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>135549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2" descr="Tabla, Excel&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A9DA52-CC7A-2DBF-7F71-8BEFBA9261FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1824990"/>
+          <a:ext cx="3273246" cy="2111034"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>288140</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>93657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4" descr="Interfaz de usuario gráfica, Aplicación, Tabla, Excel&#10;&#10;Descripción generada automáticamente">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95960766-8FC9-0D85-6517-93C0D63C0BFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="4371975"/>
+          <a:ext cx="3479015" cy="2236782"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>110490</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>164782</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10477</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>73342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216B3B0D-2ECE-2D29-5C8F-BCC7C74EF404}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17ED92EC-9F27-38A5-A584-7AD266390E1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23889,10 +24086,54 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>737571</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>34909</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DA3976-7F49-9A3B-E9E9-FCF353DD65A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4124325" y="4705350"/>
+          <a:ext cx="3871296" cy="2749534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24618,27 +24859,23 @@
 </c:userShapes>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Juan Riera" refreshedDate="44880.867396296293" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{DDC0661E-0D10-421E-A46F-9A524183A874}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Juan Riera" refreshedDate="45460.840346296296" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="11" xr:uid="{C2F65DC3-B3CB-4556-B54E-D152D6B44A41}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B19:B30" sheet="Aula1 (puntos)"/>
+    <worksheetSource ref="B1:B12" sheet="Aula1 (puntos)"/>
   </cacheSource>
   <cacheFields count="1">
-    <cacheField name="datos" numFmtId="0">
+    <cacheField name="altura (cm)" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="135" maxValue="175" count="9">
+        <n v="153"/>
         <n v="135"/>
+        <n v="140"/>
+        <n v="175"/>
         <n v="138"/>
-        <n v="140"/>
         <n v="145"/>
+        <n v="154"/>
         <n v="152"/>
-        <n v="153"/>
-        <n v="154"/>
         <n v="159"/>
-        <n v="175"/>
       </sharedItems>
       <fieldGroup base="0">
         <rangePr startNum="135" endNum="175" groupInterval="10"/>
@@ -24688,20 +24925,20 @@
     <x v="6"/>
   </r>
   <r>
-    <x v="6"/>
-  </r>
-  <r>
     <x v="7"/>
   </r>
   <r>
     <x v="8"/>
   </r>
+  <r>
+    <x v="6"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A6B90902-3042-43AA-961A-60F409BBB643}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6884C78E-287A-477C-B853-3933A7752BBC}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="F3:G8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
       <items count="7">
@@ -24739,10 +24976,39 @@
     <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Cuenta de datos" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="frec abs" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -24764,10 +25030,94 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD9E6F7C-F988-4690-B581-36E84051B815}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:C8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="frec abs" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="frec rel" fld="0" subtotal="count" showDataAs="percentOfCol" baseField="0" baseItem="1" numFmtId="165"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -24805,7 +25155,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -24911,7 +25261,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25053,7 +25403,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -25064,14 +25414,17 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -25164,7 +25517,7 @@
     </row>
     <row r="20" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="7:13" x14ac:dyDescent="0.3">
@@ -25172,7 +25525,7 @@
         <v>13</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="7:13" x14ac:dyDescent="0.3">
@@ -25180,7 +25533,7 @@
         <v>14</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="7:13" x14ac:dyDescent="0.3">
@@ -25188,7 +25541,7 @@
         <v>15</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K23">
         <v>9</v>
@@ -25207,7 +25560,7 @@
         <v>17</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -25269,6 +25622,9 @@
     <sortCondition ref="B20:B30"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="H21:H23 H25" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -25289,31 +25645,31 @@
   <sheetData>
     <row r="1" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -25814,29 +26170,29 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="11"/>
       <c r="J1" s="25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K1" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -25848,7 +26204,7 @@
       </c>
       <c r="D2">
         <f ca="1">RAND()</f>
-        <v>0.24006246909073692</v>
+        <v>4.1315619805766701E-2</v>
       </c>
       <c r="F2">
         <v>154</v>
@@ -26123,40 +26479,40 @@
     <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="12"/>
       <c r="B1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="E1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="F1" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>51</v>
-      </c>
       <c r="J1" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -26755,7 +27111,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="22">
         <f>_xlfn.VAR.P(B2:B12)</f>
@@ -26775,7 +27131,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="14">
         <f>_xlfn.STDEV.P(B2:B12)</f>
@@ -28029,11 +28385,11 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B12" ca="1" si="0">ROUND(NORMINV(RAND(),$F$3,$G$3),0)</f>
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C2" s="1">
         <f ca="1">AVERAGE($B$2:$B$12)</f>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -28057,11 +28413,11 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C12" ca="1" si="1">AVERAGE($B$2:$B$12)</f>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -28077,11 +28433,11 @@
       </c>
       <c r="H3" s="1">
         <f ca="1">AVERAGE($B$2:$B$12)</f>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="I3" s="1">
         <f ca="1">_xlfn.STDEV.S($B$2:$B$12)</f>
-        <v>7.1984846890287839</v>
+        <v>6.0136209028867436</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -28090,11 +28446,11 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -28110,11 +28466,11 @@
       </c>
       <c r="H4" s="1">
         <f ca="1">AVERAGE($B$14:$B$24)</f>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="I4" s="1">
         <f ca="1">_xlfn.STDEV.S($B$14:$B$24)</f>
-        <v>15.220799166690535</v>
+        <v>15.258380707603996</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -28123,11 +28479,11 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -28143,11 +28499,11 @@
       </c>
       <c r="H5" s="1">
         <f ca="1">AVERAGE($B$26:$B$36)</f>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="I5" s="1">
         <f ca="1">_xlfn.STDEV.S($B$26:$B$36)</f>
-        <v>12.594371037022128</v>
+        <v>15.154357309188189</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -28156,11 +28512,11 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -28176,11 +28532,11 @@
       </c>
       <c r="H6" s="1">
         <f ca="1">AVERAGE($B$38:$B$48)</f>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="I6" s="1">
         <f ca="1">_xlfn.STDEV.S($B$38:$B$48)</f>
-        <v>2.8572077914699108</v>
+        <v>6.6537754149600872</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -28189,11 +28545,11 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -28205,11 +28561,11 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -28221,11 +28577,11 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -28237,11 +28593,11 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
@@ -28253,11 +28609,11 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -28269,11 +28625,11 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149.27272727272728</v>
+        <v>154.81818181818181</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
@@ -28288,11 +28644,11 @@
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B24" ca="1" si="2">ROUND(NORMINV(RAND(),$F$4,$G$4),0)</f>
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1">
         <f ca="1">AVERAGE($B$14:$B$24)</f>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -28304,11 +28660,11 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" ref="C15:C24" ca="1" si="3">AVERAGE($B$14:$B$24)</f>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -28320,11 +28676,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -28336,11 +28692,11 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -28356,7 +28712,7 @@
       </c>
       <c r="C18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -28368,11 +28724,11 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -28384,11 +28740,11 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -28400,11 +28756,11 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -28416,11 +28772,11 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -28432,11 +28788,11 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D23" t="s">
         <v>17</v>
@@ -28448,11 +28804,11 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>156.54545454545453</v>
+        <v>158.27272727272728</v>
       </c>
       <c r="D24" t="s">
         <v>17</v>
@@ -28467,11 +28823,11 @@
       </c>
       <c r="B26">
         <f t="shared" ref="B26:B36" ca="1" si="4">ROUND(NORMINV(RAND(),$F$5,$G$5),0)</f>
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C26" s="1">
         <f ca="1">AVERAGE($B$26:$B$36)</f>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D26" t="s">
         <v>18</v>
@@ -28483,11 +28839,11 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="4"/>
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" ref="C27:C36" ca="1" si="5">AVERAGE($B$26:$B$36)</f>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -28499,11 +28855,11 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="4"/>
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D28" t="s">
         <v>18</v>
@@ -28515,11 +28871,11 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="4"/>
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -28531,11 +28887,11 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="4"/>
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D30" t="s">
         <v>18</v>
@@ -28547,11 +28903,11 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="4"/>
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
@@ -28563,11 +28919,11 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="4"/>
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D32" t="s">
         <v>18</v>
@@ -28579,11 +28935,11 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="4"/>
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -28595,11 +28951,11 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="4"/>
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D34" t="s">
         <v>18</v>
@@ -28611,11 +28967,11 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="4"/>
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
@@ -28627,11 +28983,11 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="4"/>
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>170.27272727272728</v>
+        <v>170.36363636363637</v>
       </c>
       <c r="D36" t="s">
         <v>18</v>
@@ -28646,11 +29002,11 @@
       </c>
       <c r="B38">
         <f t="shared" ref="B38:B48" ca="1" si="6">ROUND(NORMINV(RAND(),$F$6,$G$6),0)</f>
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C38" s="1">
         <f ca="1">AVERAGE($B$38:$B$48)</f>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -28662,11 +29018,11 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="6"/>
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1">
         <f t="shared" ref="C39:C48" ca="1" si="7">AVERAGE($B$38:$B$48)</f>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -28678,11 +29034,11 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="6"/>
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -28694,11 +29050,11 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="6"/>
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -28710,11 +29066,11 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="6"/>
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -28726,11 +29082,11 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="6"/>
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C43" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -28746,7 +29102,7 @@
       </c>
       <c r="C44" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -28758,11 +29114,11 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="6"/>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -28774,11 +29130,11 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="6"/>
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C46" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -28790,11 +29146,11 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="6"/>
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C47" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -28806,11 +29162,11 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="6"/>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C48" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>164.18181818181819</v>
+        <v>164.54545454545453</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -29675,13 +30031,13 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -29845,8 +30201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25871ED9-5D03-4AE9-96B3-C652CC910EA6}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30200,69 +30556,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36EC22D8-F8D2-4230-B3C7-DD04CCDE8DED}">
-  <dimension ref="A3:B8"/>
+  <dimension ref="A3:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="28">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" s="29">
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="28">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" s="29">
+        <v>0.45454545454545453</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" s="29">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" s="29">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="28">
+        <v>11</v>
+      </c>
+      <c r="C8" s="29">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="28">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -30444,10 +30856,10 @@
     <row r="1" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -30461,7 +30873,7 @@
         <v>153</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -30585,7 +30997,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8">
         <f>AVERAGE(B2:B12)</f>
@@ -30598,7 +31010,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="10">
         <f>_xlfn.STDEV.P(B2:B12)</f>
@@ -30610,13 +31022,13 @@
     </row>
     <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -30775,7 +31187,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="6">
         <f>AVERAGE(B20:B30)</f>
@@ -30792,7 +31204,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <f>_xlfn.STDEV.P(B20:B30)</f>
